--- a/Examples.Library/src/main/resources/xlsx/Template_Sales.xlsx
+++ b/Examples.Library/src/main/resources/xlsx/Template_Sales.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ds-excel-java\Source\Demos\ExamplesDemo\Examples.Library\src\main\resources\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitCode\ds-excel-java\Source\Demos\ExamplesDemo\Examples.Library\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACE7ADE-7A89-403E-9534-7F27DD1C4D2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -239,26 +238,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>107155</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1111249</xdr:colOff>
+      <xdr:colOff>1390650</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>321310</xdr:rowOff>
+      <xdr:rowOff>304391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -277,8 +270,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6510072" y="0"/>
-          <a:ext cx="1004094" cy="321310"/>
+          <a:off x="6140450" y="38101"/>
+          <a:ext cx="1651000" cy="266290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -552,26 +545,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="16.8984375" customWidth="1"/>
+    <col min="2" max="3" width="21.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.8984375" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" customWidth="1"/>
+    <col min="6" max="6" width="17.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -579,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -590,7 +583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -599,7 +592,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
@@ -610,7 +603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -618,7 +611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
@@ -629,7 +622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
